--- a/excel/MySaveFile.xlsx
+++ b/excel/MySaveFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="set_001@blueprint_001" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="185">
   <si>
     <t>[Item Amount]</t>
   </si>
@@ -374,7 +374,7 @@
     <t>炸鸡爪</t>
   </si>
   <si>
-    <t>Fried Chicken Fee5</t>
+    <t>Fried Chicken Feet</t>
   </si>
   <si>
     <t>贵妃鲍鱼片</t>
@@ -512,7 +512,7 @@
     <t>Squid Tentacles</t>
   </si>
   <si>
-    <t>#FFB41B</t>
+    <t>#FA8314</t>
   </si>
   <si>
     <t>中嘴肉片</t>
@@ -521,40 +521,61 @@
     <t>Pork Shoulder Slices</t>
   </si>
   <si>
+    <t>#FA8315</t>
+  </si>
+  <si>
     <t>五花腩肉片</t>
   </si>
   <si>
     <t>Pork Belly Slices</t>
   </si>
   <si>
+    <t>#FA8316</t>
+  </si>
+  <si>
     <t>特级五花烟肉片</t>
   </si>
   <si>
     <t>Bacon Slices</t>
   </si>
   <si>
+    <t>#FA8317</t>
+  </si>
+  <si>
     <t>澳洲牛肉片</t>
   </si>
   <si>
     <t>Australia Beef Slices</t>
   </si>
   <si>
+    <t>#FA8318</t>
+  </si>
+  <si>
     <t>澳洲羊肉片</t>
   </si>
   <si>
     <t>Australia Lamb Slices</t>
   </si>
   <si>
+    <t>#FA8319</t>
+  </si>
+  <si>
     <t>帝王蟹腿</t>
   </si>
   <si>
     <t>King Crab Legs</t>
   </si>
   <si>
+    <t>#FA8320</t>
+  </si>
+  <si>
     <t>鸡肉片</t>
   </si>
   <si>
     <t>Chicken Slices</t>
+  </si>
+  <si>
+    <t>#FA8321</t>
   </si>
   <si>
     <t>虾滑</t>
@@ -1035,7 +1056,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1730,10 +1751,13 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3511,19 +3535,19 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
         <v>164</v>
       </c>
-      <c r="D78" t="s">
-        <v>161</v>
-      </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -3534,19 +3558,19 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
         <v>167</v>
-      </c>
-      <c r="F79" t="s">
-        <v>161</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -3557,19 +3581,19 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -3580,19 +3604,19 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -3603,19 +3627,19 @@
         <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3626,19 +3650,19 @@
         <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -3649,19 +3673,19 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>

--- a/excel/MySaveFile.xlsx
+++ b/excel/MySaveFile.xlsx
@@ -32,19 +32,19 @@
     <t>[Item Amount]</t>
   </si>
   <si>
-    <t>frame:color</t>
+    <t>/frame:color</t>
   </si>
   <si>
     <t>text_chinese</t>
   </si>
   <si>
-    <t>text_chinese:color</t>
+    <t>/text_chinese:color</t>
   </si>
   <si>
     <t>text_english</t>
   </si>
   <si>
-    <t>text_english:color</t>
+    <t>/text_english:color</t>
   </si>
   <si>
     <t>[Item Note]</t>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
